--- a/app/upload_file/обработанный_ARS_(29)_после_парсинга_5491080473197204.xlsx
+++ b/app/upload_file/обработанный_ARS_(29)_после_парсинга_5491080473197204.xlsx
@@ -808,22 +808,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>123778008</t>
+          <t>12600313</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>КРЫШКА СТАРТЕРА</t>
+          <t>Кольцо уплотнительное</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ЭЛЕКТРОМ</t>
+          <t>GENERAL MOTORS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>123778008</t>
+          <t>12600313</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>757.19</t>
+          <t>1117.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>RUPR</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -932,22 +932,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12600313</t>
+          <t>0X1521</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Кольцо уплотнительное</t>
+          <t>Фильтр масляный</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GENERAL MOTORS</t>
+          <t>Mahle / Knecht</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12600313</t>
+          <t>0X1521</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1117.22</t>
+          <t>1208.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RUPR</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1056,22 +1056,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0X1521</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Фильтр масляный</t>
+          <t>ЩЕТКА СТЕКЛООЧИСТ-ЛЯ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mahle / Knecht</t>
+          <t>Peugeot / Citroen</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0X1521</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1208.73</t>
+          <t>1143.37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1304,37 +1304,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>101905601F</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ЩЕТКА СТЕКЛООЧИСТ-ЛЯ</t>
+          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Peugeot / Citroen</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00006426YN</t>
+          <t>101905601F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>324</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1143.37</t>
+          <t>277.2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1354,106 +1354,106 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>336</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>304</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>101905601F</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
+          <t>КЛИП</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>Peugeot / Citroen</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>101905601F</t>
+          <t>00008120T7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>277.2</t>
+          <t>184.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FGOB</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>FGOA</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>244</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>0022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>КЛИП</t>
+          <t>Венец маховика 4BT, ISBe (138 зубьев) (412х16) 390</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Peugeot / Citroen</t>
+          <t>HAFFEN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>0022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>184.95</t>
+          <t>1993.1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1468,22 +1468,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>FGOB</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1614,32 +1614,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0022</t>
+          <t>1033501136</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Венец маховика 4BT, ISBe (138 зубьев) (412х16) 390</t>
+          <t>Рычаг регулировочный 103-3501136 (МАЗ-4370) KONNOR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HAFFEN</t>
+          <t>KONNOR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0022</t>
+          <t>1033501136</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1993.1</t>
+          <t>1619.02</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1654,54 +1654,54 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>KSWE</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1033501136</t>
+          <t>130281KC0A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Рычаг регулировочный 103-3501136 (МАЗ-4370) KONNOR</t>
+          <t>ЦЕПЬ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KONNOR</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1033501136</t>
+          <t>130281KC0A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1619.02</t>
+          <t>6629.92</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1716,54 +1716,54 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>KSWE</t>
+          <t>NYZD</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>7528</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>130281KC0A</t>
+          <t>0840760010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ЦЕПЬ</t>
+          <t>Кольца поршневые B21 1.75*2*4 std</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>GOETZE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>130281KC0A</t>
+          <t>0840760010</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6629.92</t>
+          <t>1045.3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1778,54 +1778,54 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NYZD</t>
+          <t>ABMC</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7529</t>
+          <t>2279</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0840760010</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Кольца поршневые B21 1.75*2*4 std</t>
+          <t>сальник</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GOETZE</t>
+          <t>VAG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0840760010</t>
+          <t>016409399B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1045.3</t>
+          <t>714.67</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1840,17 +1840,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ABMC</t>
+          <t>FZUE</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1862,22 +1862,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>110050</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>сальник</t>
+          <t>Ремкомплект</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VAG</t>
+          <t>DT Spare Parts</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>016409399B</t>
+          <t>110050</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>714.67</t>
+          <t>2478.8</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>FZUE</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1924,32 +1924,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>110050</t>
+          <t>1305960</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ремкомплект</t>
+          <t>Втулка переднего стабилизатора</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DT Spare Parts</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>110050</t>
+          <t>1305960</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2478.8</t>
+          <t>556.1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1974,44 +1974,44 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3572</t>
+          <t>726</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1305960</t>
+          <t>085666202A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Втулка переднего стабилизатора</t>
+          <t>08566-6202A Болт Nissan</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1305960</t>
+          <t>085666202A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>556.1</t>
+          <t>112.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2026,54 +2026,54 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>OEOO</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>126</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>085666202A</t>
+          <t>123778008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08566-6202A Болт Nissan</t>
+          <t>КРЫШКА СТАРТЕРА</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>ЭЛЕКТРОМ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>085666202A</t>
+          <t>123778008</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>112.63</t>
+          <t>757.19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2088,44 +2088,44 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>OEOO</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>886</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11117548101</t>
+          <t>08F30SAA600A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Упл.комплект блок-картера безасбестовый E90 E60 E70</t>
+          <t>Накладка крышки багажника</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>HONDA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11117548101</t>
+          <t>08F30SAA600A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>20481.55</t>
+          <t>1590.62</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>да</t>
+          <t>нет</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>26124</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2172,22 +2172,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08F30SAA600A</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Накладка крышки багажника</t>
+          <t>К-т поршневых колец</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HONDA</t>
+          <t>Mahle / Knecht</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>08F30SAA600A</t>
+          <t>02943N0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1590.62</t>
+          <t>2288.75</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2296,37 +2296,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>1315691</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>К-т поршневых колец</t>
+          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mahle / Knecht</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>02943N0</t>
+          <t>1315691</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>388</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2288.75</t>
+          <t>277.2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2346,49 +2346,49 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>370</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1315691</t>
+          <t>11381101</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
+          <t>УКАЗАТЕЛЬ ТОКА АМПЕРМЕТР</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>AMZ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1315691</t>
+          <t>11381101</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>277.2</t>
+          <t>156.87</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>205</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2482,32 +2482,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11381101</t>
+          <t>1152973</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>УКАЗАТЕЛЬ ТОКА АМПЕРМЕТР</t>
+          <t>Болт шатуна 115-2973 СТР</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AMZ</t>
+          <t>CTP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11381101</t>
+          <t>1152973</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>156.87</t>
+          <t>2406.1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2522,54 +2522,54 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>FGOB</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>108</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1152973</t>
+          <t>1321517</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Болт шатуна 115-2973 СТР</t>
+          <t>Колодки тормозные передние</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1152973</t>
+          <t>1321517</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2406.1</t>
+          <t>1357.56</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2584,54 +2584,54 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>FGOB</t>
+          <t>FRZD</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1321517</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние</t>
+          <t>ремкомплект</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>Руслан-Комплект</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1321517</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1357.56</t>
+          <t>747.16</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>FRZD</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>969</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2792,22 +2792,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>0K2A161A10A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ремкомплект</t>
+          <t>РАДИАТОР ОТОПИТЕЛЯ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Руслан-Комплект</t>
+          <t>Hyundai / KIA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>0K2A161A10A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>747.16</t>
+          <t>3012.78</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>OWFJ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>3682</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2854,32 +2854,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0K2A161A10A</t>
+          <t>0K2N12638Z</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>РАДИАТОР ОТОПИТЕЛЯ</t>
+          <t>Колодки тормозные задние</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hyundai / KIA</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0K2A161A10A</t>
+          <t>0K2N12638Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3012.78</t>
+          <t>1419.91</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2894,22 +2894,22 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>OWFJ</t>
+          <t>FRZA</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>3683</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3288,32 +3288,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0K2N12638Z</t>
+          <t>0K2N151040A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние</t>
+          <t>Автодеталь</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>Hyundai / KIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0K2N12638Z</t>
+          <t>0K2N151040A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1419.91</t>
+          <t>2238.47</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3328,44 +3328,44 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>FRZA</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0K2N151040A</t>
+          <t>11117548101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Автодеталь</t>
+          <t>Упл.комплект блок-картера безасбестовый E90 E60 E70</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hyundai / KIA</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0K2N151040A</t>
+          <t>11117548101</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2238.47</t>
+          <t>20481.55</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>нет</t>
+          <t>да</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>26123</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3536,22 +3536,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0281006035</t>
+          <t>09A62131</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ДАТЧИК АБС. ДАВЛЕНИЯ</t>
+          <t>ДИСК тормозной</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOSCH</t>
+          <t>Brembo</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0281006035</t>
+          <t>09A62131</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5425.78</t>
+          <t>7073.39</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RJTV</t>
+          <t>1ZKV</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>7799</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -3846,37 +3846,37 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09A62131</t>
+          <t>04C905616D</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ДИСК тормозной</t>
+          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brembo</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>09A62131</t>
+          <t>04C905616D</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>248</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7073.39</t>
+          <t>399.17</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1ZKV</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>7995</t>
+          <t>475</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>136</t>
         </is>
       </c>
     </row>
@@ -4094,37 +4094,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04C905616D</t>
+          <t>121643</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
+          <t>Выключатель</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>DT Spare Parts</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>04C905616D</t>
+          <t>121643</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>399.17</t>
+          <t>3393.9</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>FGOA</t>
+          <t>ABAA</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4144,44 +4144,44 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>121643</t>
+          <t>13250469</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Выключатель</t>
+          <t>Форсунка, стеклоомыватель ветрового стекла, п/с</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DT Spare Parts</t>
+          <t>GENERAL MOTORS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>121643</t>
+          <t>13250469</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3393.9</t>
+          <t>945.5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4196,22 +4196,22 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ABAA</t>
+          <t>FRZD</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -4342,37 +4342,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>13250469</t>
+          <t>0K2AA18110</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Форсунка, стеклоомыватель ветрового стекла, п/с</t>
+          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GENERAL MOTORS</t>
+          <t>MOTEC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13250469</t>
+          <t>0K2AA18110</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>196</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>945.5</t>
+          <t>464.59</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4382,34 +4382,34 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>FRZD</t>
+          <t>FGOA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>609</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>196</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0K2AA18110</t>
+          <t>0K2C034460</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Свеча зажигания Long Life (кратность 4 шт.) "иридий"</t>
+          <t>Сайлентблок переднего рычага передний</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4419,59 +4419,59 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0K2AA18110</t>
+          <t>0K2C034460</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>464.59</t>
+          <t>401.23</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>FRZA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>FGOA</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>460</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0K2C034460</t>
+          <t>0K2N13328ZA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Сайлентблок переднего рычага передний</t>
+          <t>Колодки тормозные передние</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4481,17 +4481,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0K2C034460</t>
+          <t>0K2N13328ZA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>401.23</t>
+          <t>1114.2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4590,32 +4590,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0K2N13328ZA</t>
+          <t>061760</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние</t>
+          <t>061.760 Сальник клапана Elring</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MOTEC</t>
+          <t>ELRING</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0K2N13328ZA</t>
+          <t>061760</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1114.2</t>
+          <t>520.9</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4630,44 +4630,44 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>FRZA</t>
+          <t>DPRD</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>557</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>061760</t>
+          <t>0281006035</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>061.760 Сальник клапана Elring</t>
+          <t>ДАТЧИК АБС. ДАВЛЕНИЯ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ELRING</t>
+          <t>BOSCH</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>061760</t>
+          <t>0281006035</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>520.9</t>
+          <t>5425.78</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>DPRD</t>
+          <t>RJTV</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>7798</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
